--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,21 +40,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
@@ -64,31 +61,40 @@
     <t>scary</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
     <t>important</t>
-  </si>
-  <si>
-    <t>better</t>
   </si>
   <si>
     <t>social</t>
@@ -452,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,10 +466,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -521,13 +527,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9519230769230769</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -539,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -571,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9393939393939394</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -589,19 +595,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.88</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -613,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -642,16 +648,16 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5">
         <v>0.8</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -663,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -671,13 +677,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -689,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.6842105263157895</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -713,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -721,7 +727,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -739,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.5600000000000001</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -763,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -771,13 +777,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6842105263157895</v>
+        <v>0.625</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -789,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.5333333333333333</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -813,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -821,13 +827,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -839,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.4482758620689655</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -863,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -871,13 +877,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.463768115942029</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C10">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -889,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.04918032786885246</v>
+        <v>0.04644808743169399</v>
       </c>
       <c r="L10">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -921,25 +927,77 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3829787234042553</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>29</v>
+      <c r="B13">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
